--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mfge8-Pdgfrb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mfge8-Pdgfrb.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.66138833333333</v>
+        <v>14.82231633333333</v>
       </c>
       <c r="H2">
-        <v>64.984165</v>
+        <v>44.466949</v>
       </c>
       <c r="I2">
-        <v>0.2252765553546639</v>
+        <v>0.0966878806285147</v>
       </c>
       <c r="J2">
-        <v>0.225276555354664</v>
+        <v>0.0966878806285147</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>7.259429666666667</v>
+        <v>6.07605</v>
       </c>
       <c r="N2">
-        <v>21.778289</v>
+        <v>18.22815</v>
       </c>
       <c r="O2">
-        <v>0.05296410708422108</v>
+        <v>0.0302610603580868</v>
       </c>
       <c r="P2">
-        <v>0.05296410708422109</v>
+        <v>0.0302610603580868</v>
       </c>
       <c r="Q2">
-        <v>157.2493250881872</v>
+        <v>90.06113515714999</v>
       </c>
       <c r="R2">
-        <v>1415.243925793685</v>
+        <v>810.55021641435</v>
       </c>
       <c r="S2">
-        <v>0.01193157160136888</v>
+        <v>0.002925877791594975</v>
       </c>
       <c r="T2">
-        <v>0.01193157160136888</v>
+        <v>0.002925877791594974</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.66138833333333</v>
+        <v>14.82231633333333</v>
       </c>
       <c r="H3">
-        <v>64.984165</v>
+        <v>44.466949</v>
       </c>
       <c r="I3">
-        <v>0.2252765553546639</v>
+        <v>0.0966878806285147</v>
       </c>
       <c r="J3">
-        <v>0.225276555354664</v>
+        <v>0.0966878806285147</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>180.397216</v>
       </c>
       <c r="O3">
-        <v>0.438720299189682</v>
+        <v>0.2994824511432495</v>
       </c>
       <c r="P3">
-        <v>0.4387202991896821</v>
+        <v>0.2994824511432494</v>
       </c>
       <c r="Q3">
-        <v>1302.551383342738</v>
+        <v>891.3015337348871</v>
       </c>
       <c r="R3">
-        <v>11722.96245008464</v>
+        <v>8021.713803613985</v>
       </c>
       <c r="S3">
-        <v>0.09883339776561911</v>
+        <v>0.02895632348647349</v>
       </c>
       <c r="T3">
-        <v>0.09883339776561914</v>
+        <v>0.02895632348647349</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.66138833333333</v>
+        <v>14.82231633333333</v>
       </c>
       <c r="H4">
-        <v>64.984165</v>
+        <v>44.466949</v>
       </c>
       <c r="I4">
-        <v>0.2252765553546639</v>
+        <v>0.0966878806285147</v>
       </c>
       <c r="J4">
-        <v>0.225276555354664</v>
+        <v>0.0966878806285147</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>69.67135866666666</v>
+        <v>134.5792873333333</v>
       </c>
       <c r="N4">
-        <v>209.014076</v>
+        <v>403.737862</v>
       </c>
       <c r="O4">
-        <v>0.5083155937260968</v>
+        <v>0.6702564884986638</v>
       </c>
       <c r="P4">
-        <v>0.5083155937260969</v>
+        <v>0.6702564884986637</v>
       </c>
       <c r="Q4">
-        <v>1509.178355789616</v>
+        <v>1994.776768769226</v>
       </c>
       <c r="R4">
-        <v>13582.60520210654</v>
+        <v>17952.99091892304</v>
       </c>
       <c r="S4">
-        <v>0.1145115859876759</v>
+        <v>0.06480567935044625</v>
       </c>
       <c r="T4">
-        <v>0.1145115859876759</v>
+        <v>0.06480567935044623</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>74.04265699999999</v>
       </c>
       <c r="I5">
-        <v>0.2566790650963491</v>
+        <v>0.1609965995515919</v>
       </c>
       <c r="J5">
-        <v>0.2566790650963491</v>
+        <v>0.1609965995515918</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>7.259429666666667</v>
+        <v>6.07605</v>
       </c>
       <c r="N5">
-        <v>21.778289</v>
+        <v>18.22815</v>
       </c>
       <c r="O5">
-        <v>0.05296410708422108</v>
+        <v>0.0302610603580868</v>
       </c>
       <c r="P5">
-        <v>0.05296410708422109</v>
+        <v>0.0302610603580868</v>
       </c>
       <c r="Q5">
-        <v>179.1691536082081</v>
+        <v>149.96229535495</v>
       </c>
       <c r="R5">
-        <v>1612.522382473873</v>
+        <v>1349.66065819455</v>
       </c>
       <c r="S5">
-        <v>0.01359477749004079</v>
+        <v>0.004871927816477451</v>
       </c>
       <c r="T5">
-        <v>0.01359477749004079</v>
+        <v>0.004871927816477451</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>74.04265699999999</v>
       </c>
       <c r="I6">
-        <v>0.2566790650963491</v>
+        <v>0.1609965995515919</v>
       </c>
       <c r="J6">
-        <v>0.2566790650963491</v>
+        <v>0.1609965995515918</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>180.397216</v>
       </c>
       <c r="O6">
-        <v>0.438720299189682</v>
+        <v>0.2994824511432495</v>
       </c>
       <c r="P6">
-        <v>0.4387202991896821</v>
+        <v>0.2994824511432494</v>
       </c>
       <c r="Q6">
         <v>1484.121020893657</v>
@@ -818,10 +818,10 @@
         <v>13357.08918804291</v>
       </c>
       <c r="S6">
-        <v>0.1126103162347981</v>
+        <v>0.04821565625943891</v>
       </c>
       <c r="T6">
-        <v>0.1126103162347982</v>
+        <v>0.04821565625943889</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>74.04265699999999</v>
       </c>
       <c r="I7">
-        <v>0.2566790650963491</v>
+        <v>0.1609965995515919</v>
       </c>
       <c r="J7">
-        <v>0.2566790650963491</v>
+        <v>0.1609965995515918</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>69.67135866666666</v>
+        <v>134.5792873333333</v>
       </c>
       <c r="N7">
-        <v>209.014076</v>
+        <v>403.737862</v>
       </c>
       <c r="O7">
-        <v>0.5083155937260968</v>
+        <v>0.6702564884986638</v>
       </c>
       <c r="P7">
-        <v>0.5083155937260969</v>
+        <v>0.6702564884986637</v>
       </c>
       <c r="Q7">
-        <v>1719.550837493326</v>
+        <v>3321.536003775481</v>
       </c>
       <c r="R7">
-        <v>15475.95753743993</v>
+        <v>29893.82403397933</v>
       </c>
       <c r="S7">
-        <v>0.1304739713715101</v>
+        <v>0.1079090154756755</v>
       </c>
       <c r="T7">
-        <v>0.1304739713715102</v>
+        <v>0.1079090154756755</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>49.812376</v>
+        <v>113.7974623333333</v>
       </c>
       <c r="H8">
-        <v>149.437128</v>
+        <v>341.392387</v>
       </c>
       <c r="I8">
-        <v>0.518044379548987</v>
+        <v>0.7423155198198935</v>
       </c>
       <c r="J8">
-        <v>0.5180443795489871</v>
+        <v>0.7423155198198935</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>7.259429666666667</v>
+        <v>6.07605</v>
       </c>
       <c r="N8">
-        <v>21.778289</v>
+        <v>18.22815</v>
       </c>
       <c r="O8">
-        <v>0.05296410708422108</v>
+        <v>0.0302610603580868</v>
       </c>
       <c r="P8">
-        <v>0.05296410708422109</v>
+        <v>0.0302610603580868</v>
       </c>
       <c r="Q8">
-        <v>361.6094401015547</v>
+        <v>691.4390710104499</v>
       </c>
       <c r="R8">
-        <v>3254.484960913992</v>
+        <v>6222.95163909405</v>
       </c>
       <c r="S8">
-        <v>0.02743775799281142</v>
+        <v>0.02246325475001438</v>
       </c>
       <c r="T8">
-        <v>0.02743775799281143</v>
+        <v>0.02246325475001437</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>49.812376</v>
+        <v>113.7974623333333</v>
       </c>
       <c r="H9">
-        <v>149.437128</v>
+        <v>341.392387</v>
       </c>
       <c r="I9">
-        <v>0.518044379548987</v>
+        <v>0.7423155198198935</v>
       </c>
       <c r="J9">
-        <v>0.5180443795489871</v>
+        <v>0.7423155198198935</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>180.397216</v>
       </c>
       <c r="O9">
-        <v>0.438720299189682</v>
+        <v>0.2994824511432495</v>
       </c>
       <c r="P9">
-        <v>0.4387202991896821</v>
+        <v>0.2994824511432494</v>
       </c>
       <c r="Q9">
-        <v>2995.337984248406</v>
+        <v>6842.915130932733</v>
       </c>
       <c r="R9">
-        <v>26958.04185823565</v>
+        <v>61586.2361783946</v>
       </c>
       <c r="S9">
-        <v>0.2272765851892647</v>
+        <v>0.2223104713973371</v>
       </c>
       <c r="T9">
-        <v>0.2272765851892648</v>
+        <v>0.222310471397337</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>49.812376</v>
+        <v>113.7974623333333</v>
       </c>
       <c r="H10">
-        <v>149.437128</v>
+        <v>341.392387</v>
       </c>
       <c r="I10">
-        <v>0.518044379548987</v>
+        <v>0.7423155198198935</v>
       </c>
       <c r="J10">
-        <v>0.5180443795489871</v>
+        <v>0.7423155198198935</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>69.67135866666666</v>
+        <v>134.5792873333333</v>
       </c>
       <c r="N10">
-        <v>209.014076</v>
+        <v>403.737862</v>
       </c>
       <c r="O10">
-        <v>0.5083155937260968</v>
+        <v>0.6702564884986638</v>
       </c>
       <c r="P10">
-        <v>0.5083155937260969</v>
+        <v>0.6702564884986637</v>
       </c>
       <c r="Q10">
-        <v>3470.495914334858</v>
+        <v>15314.78138116184</v>
       </c>
       <c r="R10">
-        <v>31234.46322901373</v>
+        <v>137833.0324304566</v>
       </c>
       <c r="S10">
-        <v>0.2633300363669108</v>
+        <v>0.4975417936725421</v>
       </c>
       <c r="T10">
-        <v>0.2633300363669109</v>
+        <v>0.497541793672542</v>
       </c>
     </row>
   </sheetData>
